--- a/tut05/output/0401EE11.xlsx
+++ b/tut05/output/0401EE11.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.836734693877551</v>
+        <v>8.84</v>
       </c>
       <c r="C6" t="n">
-        <v>7.931818181818182</v>
+        <v>7.93</v>
       </c>
       <c r="D6" t="n">
-        <v>8.434782608695652</v>
+        <v>8.43</v>
       </c>
       <c r="E6" t="n">
-        <v>8.869565217391305</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8.692307692307692</v>
+        <v>8.69</v>
       </c>
       <c r="G6" t="n">
         <v>8.35</v>
       </c>
       <c r="H6" t="n">
-        <v>8.511627906976743</v>
+        <v>8.51</v>
       </c>
       <c r="I6" t="n">
-        <v>7.684210526315789</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.836734693877551</v>
+        <v>8.84</v>
       </c>
       <c r="C8" t="n">
-        <v>8.408602150537634</v>
+        <v>8.41</v>
       </c>
       <c r="D8" t="n">
-        <v>8.417266187050359</v>
+        <v>8.42</v>
       </c>
       <c r="E8" t="n">
-        <v>8.529729729729731</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8.558035714285714</v>
+        <v>8.56</v>
       </c>
       <c r="G8" t="n">
-        <v>8.526515151515152</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.524429967426711</v>
+        <v>8.52</v>
       </c>
       <c r="I8" t="n">
-        <v>8.431884057971015</v>
+        <v>8.43</v>
       </c>
     </row>
   </sheetData>
